--- a/src/main/resources/Addroute.xlsx
+++ b/src/main/resources/Addroute.xlsx
@@ -30,10 +30,10 @@
     <t>Route Code</t>
   </si>
   <si>
-    <t>Indira Nagar</t>
-  </si>
-  <si>
-    <t>Route Code  - IN059</t>
+    <t>Bye Pass Road</t>
+  </si>
+  <si>
+    <t>Code - BPR23</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/Addroute.xlsx
+++ b/src/main/resources/Addroute.xlsx
@@ -30,10 +30,10 @@
     <t>Route Code</t>
   </si>
   <si>
-    <t>Bye Pass Road</t>
-  </si>
-  <si>
-    <t>Code - BPR23</t>
+    <t>Yaanaikkal</t>
+  </si>
+  <si>
+    <t>Code - YK24</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/Addroute.xlsx
+++ b/src/main/resources/Addroute.xlsx
@@ -30,10 +30,10 @@
     <t>Route Code</t>
   </si>
   <si>
-    <t>Yaanaikkal</t>
-  </si>
-  <si>
-    <t>Code - YK24</t>
+    <t>MK Puram</t>
+  </si>
+  <si>
+    <t>Code - MKP27</t>
   </si>
 </sst>
 </file>
